--- a/BP8/Rev3/Derating.xlsx
+++ b/BP8/Rev3/Derating.xlsx
@@ -152,9 +152,6 @@
     <t>15pF</t>
   </si>
   <si>
-    <t>CAP CER 15PF 100V C0G 0402</t>
-  </si>
-  <si>
     <t>55.6 V</t>
   </si>
   <si>
@@ -1125,6 +1122,9 @@
   </si>
   <si>
     <t>60V/50mW</t>
+  </si>
+  <si>
+    <t>CAP CER 15PF 100V 0603</t>
   </si>
 </sst>
 </file>
@@ -1618,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1869,7 +1869,7 @@
         <v>41</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>42</v>
+        <v>366</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>40</v>
@@ -1884,7 +1884,7 @@
         <v>27</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="9" t="s">
@@ -1894,13 +1894,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="20">
         <v>3</v>
@@ -1920,15 +1920,15 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="20">
         <v>2</v>
@@ -1950,13 +1950,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="C12" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="20">
         <v>1</v>
@@ -1968,7 +1968,7 @@
         <v>32</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="9" t="s">
@@ -1978,13 +1978,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="C13" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="20">
         <v>2</v>
@@ -2006,25 +2006,25 @@
     </row>
     <row r="14" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="C14" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="20">
         <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="18" t="s">
         <v>60</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>61</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="9" t="s">
@@ -2034,25 +2034,25 @@
     </row>
     <row r="15" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="C15" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="20">
         <v>4</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>66</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="9" t="s">
@@ -2062,25 +2062,25 @@
     </row>
     <row r="16" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="20">
         <v>3</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>71</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="9" t="s">
@@ -2090,25 +2090,25 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="C17" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="20">
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="17" t="s">
         <v>75</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>76</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="9" t="s">
@@ -2118,25 +2118,25 @@
     </row>
     <row r="18" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="C18" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="20">
         <v>2</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>82</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="9" t="s">
@@ -2146,25 +2146,25 @@
     </row>
     <row r="19" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="C19" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="20">
         <v>2</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>82</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="9" t="s">
@@ -2174,25 +2174,25 @@
     </row>
     <row r="20" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="C20" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" s="20">
         <v>2</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>82</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="9" t="s">
@@ -2202,25 +2202,25 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>91</v>
-      </c>
       <c r="C21" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="20">
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="9" t="s">
@@ -2230,109 +2230,109 @@
     </row>
     <row r="22" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="C22" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" s="20">
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>100</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="C23" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D23" s="20">
         <v>2</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="C24" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D24" s="20">
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="C25" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" s="20">
         <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="19" t="s">
         <v>113</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>114</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="9" t="s">
@@ -2342,25 +2342,25 @@
     </row>
     <row r="26" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="C26" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D26" s="20">
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="9" t="s">
@@ -2370,25 +2370,25 @@
     </row>
     <row r="27" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>121</v>
-      </c>
       <c r="C27" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D27" s="20">
         <v>1</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="9" t="s">
@@ -2398,25 +2398,25 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C28" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D28" s="20">
         <v>2</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="19" t="s">
         <v>127</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>128</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="9" t="s">
@@ -2426,25 +2426,25 @@
     </row>
     <row r="29" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>131</v>
-      </c>
       <c r="C29" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D29" s="20">
         <v>2</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F29" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="9" t="s">
@@ -2454,25 +2454,25 @@
     </row>
     <row r="30" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>136</v>
-      </c>
       <c r="C30" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D30" s="20">
         <v>6</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F30" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="19" t="s">
         <v>137</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>138</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9" t="s">
@@ -2482,55 +2482,55 @@
     </row>
     <row r="31" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>141</v>
-      </c>
       <c r="C31" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D31" s="20">
         <v>4</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F31" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="19" t="s">
         <v>142</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>143</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>147</v>
-      </c>
       <c r="C32" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D32" s="20">
         <v>18</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="19" t="s">
         <v>149</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>150</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="9" t="s">
@@ -2540,25 +2540,25 @@
     </row>
     <row r="33" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>153</v>
-      </c>
       <c r="C33" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D33" s="20">
         <v>6</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="G33" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="9" t="s">
@@ -2568,25 +2568,25 @@
     </row>
     <row r="34" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="C34" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D34" s="20">
         <v>18</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="G34" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="9" t="s">
@@ -2596,25 +2596,25 @@
     </row>
     <row r="35" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>161</v>
-      </c>
       <c r="C35" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D35" s="20">
         <v>4</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="G35" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="9" t="s">
@@ -2624,25 +2624,25 @@
     </row>
     <row r="36" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>165</v>
-      </c>
       <c r="C36" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D36" s="20">
         <v>2</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F36" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G36" s="19" t="s">
         <v>166</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>167</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="9" t="s">
@@ -2652,25 +2652,25 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>170</v>
-      </c>
       <c r="C37" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D37" s="20">
         <v>28</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="G37" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="9" t="s">
@@ -2680,25 +2680,25 @@
     </row>
     <row r="38" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>174</v>
-      </c>
       <c r="C38" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D38" s="20">
         <v>18</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G38" s="19" t="s">
         <v>175</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>176</v>
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="9" t="s">
@@ -2708,25 +2708,25 @@
     </row>
     <row r="39" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>179</v>
-      </c>
       <c r="C39" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D39" s="20">
         <v>18</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="9" t="s">
@@ -2736,25 +2736,25 @@
     </row>
     <row r="40" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>183</v>
-      </c>
       <c r="C40" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D40" s="20">
         <v>8</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="9" t="s">
@@ -2764,25 +2764,25 @@
     </row>
     <row r="41" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="C41" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D41" s="20">
+        <v>16</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G41" s="19" t="s">
         <v>187</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D41" s="20">
-        <v>16</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>188</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="9" t="s">
@@ -2792,25 +2792,25 @@
     </row>
     <row r="42" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="C42" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" s="20">
+        <v>16</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D42" s="20">
-        <v>16</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F42" s="4" t="s">
+      <c r="G42" s="19" t="s">
         <v>192</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>193</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="9" t="s">
@@ -2820,25 +2820,25 @@
     </row>
     <row r="43" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D43" s="20">
         <v>9</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="G43" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="9" t="s">
@@ -2848,25 +2848,25 @@
     </row>
     <row r="44" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="C44" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D44" s="20">
         <v>9</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="9" t="s">
@@ -2876,25 +2876,25 @@
     </row>
     <row r="45" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>202</v>
-      </c>
       <c r="C45" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D45" s="20">
         <v>11</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="G45" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="9" t="s">
@@ -2904,25 +2904,25 @@
     </row>
     <row r="46" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>206</v>
-      </c>
       <c r="C46" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D46" s="20">
         <v>8</v>
       </c>
       <c r="E46" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="G46" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="9" t="s">
@@ -2932,25 +2932,25 @@
     </row>
     <row r="47" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>210</v>
-      </c>
       <c r="C47" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D47" s="20">
         <v>4</v>
       </c>
       <c r="E47" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="G47" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="9" t="s">
@@ -2960,25 +2960,25 @@
     </row>
     <row r="48" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>213</v>
-      </c>
       <c r="C48" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D48" s="20">
         <v>3</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="9" t="s">
@@ -2988,25 +2988,25 @@
     </row>
     <row r="49" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="C49" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D49" s="20">
         <v>2</v>
       </c>
       <c r="E49" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="G49" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="9" t="s">
@@ -3016,25 +3016,25 @@
     </row>
     <row r="50" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>221</v>
-      </c>
       <c r="C50" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D50" s="20">
         <v>1</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="9" t="s">
@@ -3044,25 +3044,25 @@
     </row>
     <row r="51" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>225</v>
-      </c>
       <c r="C51" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D51" s="20">
         <v>4</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="9" t="s">
@@ -3072,25 +3072,25 @@
     </row>
     <row r="52" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>229</v>
-      </c>
       <c r="C52" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D52" s="20">
         <v>1</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H52" s="13"/>
       <c r="I52" s="9" t="s">
@@ -3100,25 +3100,25 @@
     </row>
     <row r="53" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="C53" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D53" s="20">
         <v>1</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H53" s="13"/>
       <c r="I53" s="9" t="s">
@@ -3128,25 +3128,25 @@
     </row>
     <row r="54" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>236</v>
-      </c>
       <c r="C54" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D54" s="20">
         <v>1</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H54" s="13"/>
       <c r="I54" s="9" t="s">
@@ -3156,25 +3156,25 @@
     </row>
     <row r="55" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>239</v>
-      </c>
       <c r="C55" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D55" s="20">
         <v>1</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="G55" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="9" t="s">
@@ -3184,25 +3184,25 @@
     </row>
     <row r="56" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>243</v>
-      </c>
       <c r="C56" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D56" s="20">
         <v>3</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="9" t="s">
@@ -3212,25 +3212,25 @@
     </row>
     <row r="57" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D57" s="20">
         <v>2</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="9" t="s">
@@ -3240,25 +3240,25 @@
     </row>
     <row r="58" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>250</v>
-      </c>
       <c r="C58" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D58" s="20">
         <v>1</v>
       </c>
       <c r="E58" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="G58" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H58" s="13"/>
       <c r="I58" s="9" t="s">
@@ -3268,25 +3268,25 @@
     </row>
     <row r="59" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>254</v>
-      </c>
       <c r="C59" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D59" s="20">
         <v>1</v>
       </c>
       <c r="E59" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="G59" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H59" s="13"/>
       <c r="I59" s="9" t="s">
@@ -3296,25 +3296,25 @@
     </row>
     <row r="60" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>258</v>
-      </c>
       <c r="C60" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D60" s="20">
         <v>1</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F60" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G60" s="19" t="s">
         <v>259</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>260</v>
       </c>
       <c r="H60" s="13"/>
       <c r="I60" s="9" t="s">
@@ -3324,25 +3324,25 @@
     </row>
     <row r="61" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="C61" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D61" s="20">
         <v>2</v>
       </c>
       <c r="E61" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="G61" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H61" s="13"/>
       <c r="I61" s="9" t="s">
@@ -3352,25 +3352,25 @@
     </row>
     <row r="62" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>267</v>
-      </c>
       <c r="C62" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D62" s="20">
         <v>1</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F62" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G62" s="19" t="s">
         <v>268</v>
-      </c>
-      <c r="G62" s="19" t="s">
-        <v>269</v>
       </c>
       <c r="H62" s="13"/>
       <c r="I62" s="9" t="s">
@@ -3380,25 +3380,25 @@
     </row>
     <row r="63" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>272</v>
-      </c>
       <c r="C63" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D63" s="20">
         <v>1</v>
       </c>
       <c r="E63" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F63" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="G63" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H63" s="13"/>
       <c r="I63" s="9" t="s">
@@ -3408,25 +3408,25 @@
     </row>
     <row r="64" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="C64" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D64" s="20">
         <v>12</v>
       </c>
       <c r="E64" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="G64" s="19" t="s">
         <v>277</v>
-      </c>
-      <c r="G64" s="19" t="s">
-        <v>278</v>
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="9" t="s">
@@ -3436,25 +3436,25 @@
     </row>
     <row r="65" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>281</v>
-      </c>
       <c r="C65" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D65" s="20">
         <v>10</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F65" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G65" s="19" t="s">
         <v>282</v>
-      </c>
-      <c r="G65" s="19" t="s">
-        <v>283</v>
       </c>
       <c r="H65" s="13"/>
       <c r="I65" s="9" t="s">
@@ -3464,25 +3464,25 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>286</v>
-      </c>
       <c r="C66" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D66" s="20">
         <v>4</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="9" t="s">
@@ -3492,419 +3492,419 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>290</v>
-      </c>
       <c r="C67" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D67" s="20">
         <v>1</v>
       </c>
       <c r="E67" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="G67" s="19" t="s">
         <v>292</v>
-      </c>
-      <c r="G67" s="19" t="s">
-        <v>293</v>
       </c>
       <c r="H67" s="13"/>
       <c r="I67" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="C68" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D68" s="20">
+        <v>16</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="D68" s="20">
-        <v>16</v>
-      </c>
-      <c r="E68" s="3" t="s">
+      <c r="F68" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="G68" s="19" t="s">
         <v>298</v>
-      </c>
-      <c r="G68" s="19" t="s">
-        <v>299</v>
       </c>
       <c r="H68" s="13"/>
       <c r="I68" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J68" s="5"/>
     </row>
     <row r="69" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>302</v>
-      </c>
       <c r="C69" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D69" s="20">
         <v>8</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F69" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G69" s="19" t="s">
         <v>303</v>
-      </c>
-      <c r="G69" s="19" t="s">
-        <v>304</v>
       </c>
       <c r="H69" s="13"/>
       <c r="I69" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J69" s="5"/>
     </row>
     <row r="70" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>307</v>
-      </c>
       <c r="C70" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D70" s="20">
         <v>1</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F70" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G70" s="19" t="s">
         <v>308</v>
-      </c>
-      <c r="G70" s="19" t="s">
-        <v>309</v>
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J70" s="5"/>
     </row>
     <row r="71" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>312</v>
-      </c>
       <c r="C71" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D71" s="20">
         <v>1</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F71" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G71" s="19" t="s">
         <v>313</v>
-      </c>
-      <c r="G71" s="19" t="s">
-        <v>314</v>
       </c>
       <c r="H71" s="14"/>
       <c r="I71" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>317</v>
-      </c>
       <c r="C72" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D72" s="20">
         <v>3</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F72" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="G72" s="19" t="s">
         <v>318</v>
-      </c>
-      <c r="G72" s="19" t="s">
-        <v>319</v>
       </c>
       <c r="H72" s="13"/>
       <c r="I72" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>322</v>
-      </c>
       <c r="C73" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D73" s="20">
         <v>1</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F73" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G73" s="19" t="s">
         <v>323</v>
-      </c>
-      <c r="G73" s="19" t="s">
-        <v>324</v>
       </c>
       <c r="H73" s="13"/>
       <c r="I73" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J73" s="5"/>
     </row>
     <row r="74" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>327</v>
-      </c>
       <c r="C74" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D74" s="20">
         <v>1</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F74" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="G74" s="19" t="s">
         <v>328</v>
-      </c>
-      <c r="G74" s="19" t="s">
-        <v>329</v>
       </c>
       <c r="H74" s="13"/>
       <c r="I74" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J74" s="5"/>
     </row>
     <row r="75" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>332</v>
-      </c>
       <c r="C75" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D75" s="20">
         <v>2</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F75" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G75" s="19" t="s">
         <v>333</v>
-      </c>
-      <c r="G75" s="19" t="s">
-        <v>334</v>
       </c>
       <c r="H75" s="13"/>
       <c r="I75" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J75" s="5"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B76" s="6" t="s">
-        <v>337</v>
-      </c>
       <c r="C76" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D76" s="20">
         <v>2</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F76" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="G76" s="19" t="s">
         <v>338</v>
-      </c>
-      <c r="G76" s="19" t="s">
-        <v>339</v>
       </c>
       <c r="H76" s="13"/>
       <c r="I76" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J76" s="5"/>
     </row>
     <row r="77" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="B77" s="6" t="s">
-        <v>342</v>
-      </c>
       <c r="C77" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D77" s="20">
         <v>1</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F77" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G77" s="19" t="s">
         <v>343</v>
-      </c>
-      <c r="G77" s="19" t="s">
-        <v>344</v>
       </c>
       <c r="H77" s="13"/>
       <c r="I77" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J77" s="5"/>
     </row>
     <row r="78" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="B78" s="6" t="s">
-        <v>347</v>
-      </c>
       <c r="C78" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D78" s="20">
         <v>1</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H78" s="14"/>
       <c r="I78" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B79" s="6" t="s">
-        <v>351</v>
-      </c>
       <c r="C79" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D79" s="20">
         <v>2</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F79" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G79" s="19" t="s">
         <v>352</v>
-      </c>
-      <c r="G79" s="19" t="s">
-        <v>353</v>
       </c>
       <c r="H79" s="13"/>
       <c r="I79" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J79" s="5"/>
     </row>
     <row r="80" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>356</v>
-      </c>
       <c r="C80" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D80" s="20">
         <v>1</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F80" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G80" s="19" t="s">
         <v>357</v>
-      </c>
-      <c r="G80" s="19" t="s">
-        <v>358</v>
       </c>
       <c r="H80" s="13"/>
       <c r="I80" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J80" s="5"/>
     </row>
     <row r="81" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="B81" s="6" t="s">
-        <v>361</v>
-      </c>
       <c r="C81" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D81" s="20">
         <v>1</v>
       </c>
       <c r="E81" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F81" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="G81" s="19" t="s">
         <v>363</v>
-      </c>
-      <c r="G81" s="19" t="s">
-        <v>364</v>
       </c>
       <c r="H81" s="13"/>
       <c r="I81" s="9" t="s">

--- a/BP8/Rev3/Derating.xlsx
+++ b/BP8/Rev3/Derating.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="377">
   <si>
     <t>Designator</t>
   </si>
@@ -1125,6 +1125,36 @@
   </si>
   <si>
     <t>CAP CER 15PF 100V 0603</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>AEC Q200</t>
+  </si>
+  <si>
+    <t>COTS</t>
+  </si>
+  <si>
+    <t>AEC-Q101</t>
+  </si>
+  <si>
+    <t>COTS -40 to 125</t>
+  </si>
+  <si>
+    <t>COTS -55 to 125</t>
+  </si>
+  <si>
+    <t>COTS -65 to 150</t>
+  </si>
+  <si>
+    <t>COTS -40 to 85</t>
+  </si>
+  <si>
+    <t>COTS -55 to 150</t>
+  </si>
+  <si>
+    <t>COTS -55 to 175</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1240,11 +1270,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1300,6 +1341,17 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1616,10 +1668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1634,9 +1686,10 @@
     <col min="8" max="8" width="7.44140625" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -1667,8 +1720,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K1" s="21" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -1695,8 +1751,11 @@
         <v>16</v>
       </c>
       <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K2" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -1723,8 +1782,11 @@
         <v>16</v>
       </c>
       <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -1751,8 +1813,11 @@
         <v>16</v>
       </c>
       <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K4" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
@@ -1779,8 +1844,11 @@
         <v>16</v>
       </c>
       <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K5" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>30</v>
       </c>
@@ -1807,8 +1875,11 @@
         <v>16</v>
       </c>
       <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K6" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
@@ -1835,8 +1906,11 @@
         <v>16</v>
       </c>
       <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="23" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
@@ -1863,8 +1937,11 @@
         <v>16</v>
       </c>
       <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>41</v>
       </c>
@@ -1891,8 +1968,11 @@
         <v>16</v>
       </c>
       <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
@@ -1919,8 +1999,11 @@
         <v>16</v>
       </c>
       <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -1947,8 +2030,11 @@
         <v>16</v>
       </c>
       <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>49</v>
       </c>
@@ -1975,8 +2061,11 @@
         <v>16</v>
       </c>
       <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>53</v>
       </c>
@@ -2003,8 +2092,11 @@
         <v>16</v>
       </c>
       <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="K13" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>56</v>
       </c>
@@ -2031,8 +2123,11 @@
         <v>16</v>
       </c>
       <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K14" s="24" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>62</v>
       </c>
@@ -2059,8 +2154,11 @@
         <v>16</v>
       </c>
       <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K15" s="24" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>67</v>
       </c>
@@ -2087,8 +2185,11 @@
         <v>16</v>
       </c>
       <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>72</v>
       </c>
@@ -2115,8 +2216,11 @@
         <v>16</v>
       </c>
       <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K17" s="24" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>77</v>
       </c>
@@ -2143,8 +2247,11 @@
         <v>16</v>
       </c>
       <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K18" s="24" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>83</v>
       </c>
@@ -2171,8 +2278,11 @@
         <v>16</v>
       </c>
       <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K19" s="24" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>86</v>
       </c>
@@ -2199,8 +2309,11 @@
         <v>16</v>
       </c>
       <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="24" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>89</v>
       </c>
@@ -2227,8 +2340,11 @@
         <v>16</v>
       </c>
       <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K21" s="24" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>95</v>
       </c>
@@ -2255,8 +2371,11 @@
         <v>100</v>
       </c>
       <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K22" s="25" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>102</v>
       </c>
@@ -2283,8 +2402,11 @@
         <v>105</v>
       </c>
       <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K23" s="25" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>107</v>
       </c>
@@ -2311,8 +2433,11 @@
         <v>105</v>
       </c>
       <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="K24" s="25" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>110</v>
       </c>
@@ -2339,8 +2464,11 @@
         <v>16</v>
       </c>
       <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K25" s="25" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>115</v>
       </c>
@@ -2367,8 +2495,11 @@
         <v>16</v>
       </c>
       <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K26" s="23" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>119</v>
       </c>
@@ -2395,8 +2526,11 @@
         <v>16</v>
       </c>
       <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>123</v>
       </c>
@@ -2423,8 +2557,11 @@
         <v>16</v>
       </c>
       <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K28" s="24" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>129</v>
       </c>
@@ -2451,8 +2588,11 @@
         <v>16</v>
       </c>
       <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K29" s="24" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>134</v>
       </c>
@@ -2479,8 +2619,11 @@
         <v>16</v>
       </c>
       <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K30" s="25" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>139</v>
       </c>
@@ -2509,8 +2652,11 @@
       <c r="J31" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K31" s="25" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>145</v>
       </c>

--- a/BP8/Rev3/Derating.xlsx
+++ b/BP8/Rev3/Derating.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="381">
   <si>
     <t>Designator</t>
   </si>
@@ -1155,6 +1155,18 @@
   </si>
   <si>
     <t>COTS -55 to 175</t>
+  </si>
+  <si>
+    <t>COTS -55 to 155</t>
+  </si>
+  <si>
+    <t>AEC-Q100</t>
+  </si>
+  <si>
+    <t>COTS -40 to 150</t>
+  </si>
+  <si>
+    <t>AEC-Q200</t>
   </si>
 </sst>
 </file>
@@ -1670,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="D50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O54" sqref="O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2683,8 +2695,11 @@
         <v>16</v>
       </c>
       <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K32" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>151</v>
       </c>
@@ -2711,8 +2726,11 @@
         <v>16</v>
       </c>
       <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K33" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>155</v>
       </c>
@@ -2739,8 +2757,11 @@
         <v>16</v>
       </c>
       <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K34" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>159</v>
       </c>
@@ -2767,8 +2788,11 @@
         <v>16</v>
       </c>
       <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K35" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>163</v>
       </c>
@@ -2795,8 +2819,11 @@
         <v>16</v>
       </c>
       <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>168</v>
       </c>
@@ -2823,8 +2850,11 @@
         <v>16</v>
       </c>
       <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K37" s="25" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>172</v>
       </c>
@@ -2851,8 +2881,11 @@
         <v>16</v>
       </c>
       <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K38" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>177</v>
       </c>
@@ -2879,8 +2912,11 @@
         <v>16</v>
       </c>
       <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K39" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>181</v>
       </c>
@@ -2907,8 +2943,11 @@
         <v>16</v>
       </c>
       <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K40" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>185</v>
       </c>
@@ -2935,8 +2974,11 @@
         <v>16</v>
       </c>
       <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K41" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>189</v>
       </c>
@@ -2963,8 +3005,11 @@
         <v>16</v>
       </c>
       <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K42" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>155</v>
       </c>
@@ -2991,8 +3036,11 @@
         <v>16</v>
       </c>
       <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K43" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>197</v>
       </c>
@@ -3019,8 +3067,11 @@
         <v>16</v>
       </c>
       <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K44" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>200</v>
       </c>
@@ -3047,8 +3098,11 @@
         <v>16</v>
       </c>
       <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K45" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>204</v>
       </c>
@@ -3075,8 +3129,11 @@
         <v>16</v>
       </c>
       <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K46" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>208</v>
       </c>
@@ -3103,8 +3160,11 @@
         <v>16</v>
       </c>
       <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K47" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>211</v>
       </c>
@@ -3131,8 +3191,11 @@
         <v>16</v>
       </c>
       <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K48" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>215</v>
       </c>
@@ -3159,8 +3222,11 @@
         <v>16</v>
       </c>
       <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K49" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>219</v>
       </c>
@@ -3187,8 +3253,11 @@
         <v>16</v>
       </c>
       <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K50" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>223</v>
       </c>
@@ -3215,8 +3284,11 @@
         <v>16</v>
       </c>
       <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K51" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>227</v>
       </c>
@@ -3243,8 +3315,11 @@
         <v>16</v>
       </c>
       <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K52" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>231</v>
       </c>
@@ -3271,8 +3346,11 @@
         <v>16</v>
       </c>
       <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K53" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>234</v>
       </c>
@@ -3299,8 +3377,11 @@
         <v>16</v>
       </c>
       <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K54" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>237</v>
       </c>
@@ -3327,8 +3408,11 @@
         <v>16</v>
       </c>
       <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K55" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>241</v>
       </c>
@@ -3355,8 +3439,11 @@
         <v>16</v>
       </c>
       <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K56" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>155</v>
       </c>
@@ -3383,8 +3470,11 @@
         <v>16</v>
       </c>
       <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K57" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>248</v>
       </c>
@@ -3411,8 +3501,11 @@
         <v>16</v>
       </c>
       <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K58" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>252</v>
       </c>
@@ -3439,8 +3532,11 @@
         <v>16</v>
       </c>
       <c r="J59" s="5"/>
-    </row>
-    <row r="60" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K59" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>256</v>
       </c>
@@ -3467,8 +3563,11 @@
         <v>16</v>
       </c>
       <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K60" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>261</v>
       </c>
@@ -3495,8 +3594,11 @@
         <v>16</v>
       </c>
       <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K61" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>265</v>
       </c>
@@ -3523,8 +3625,11 @@
         <v>16</v>
       </c>
       <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K62" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>270</v>
       </c>
@@ -3551,8 +3656,11 @@
         <v>16</v>
       </c>
       <c r="J63" s="5"/>
-    </row>
-    <row r="64" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="K63" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>273</v>
       </c>
@@ -3579,8 +3687,11 @@
         <v>16</v>
       </c>
       <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="K64" s="24" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>279</v>
       </c>
@@ -3607,8 +3718,11 @@
         <v>16</v>
       </c>
       <c r="J65" s="5"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K65" s="24" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>284</v>
       </c>
@@ -3635,8 +3749,11 @@
         <v>16</v>
       </c>
       <c r="J66" s="5"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K66" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>288</v>
       </c>
@@ -3663,8 +3780,11 @@
         <v>105</v>
       </c>
       <c r="J67" s="5"/>
-    </row>
-    <row r="68" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="K67" s="23" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>294</v>
       </c>
@@ -3691,8 +3811,11 @@
         <v>100</v>
       </c>
       <c r="J68" s="5"/>
-    </row>
-    <row r="69" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K68" s="24" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>300</v>
       </c>
@@ -3719,8 +3842,11 @@
         <v>100</v>
       </c>
       <c r="J69" s="5"/>
-    </row>
-    <row r="70" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K69" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>305</v>
       </c>
@@ -3747,8 +3873,11 @@
         <v>105</v>
       </c>
       <c r="J70" s="5"/>
-    </row>
-    <row r="71" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="K70" s="24" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>310</v>
       </c>
@@ -3775,8 +3904,11 @@
         <v>105</v>
       </c>
       <c r="J71" s="5"/>
-    </row>
-    <row r="72" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K71" s="24" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>315</v>
       </c>
@@ -3803,8 +3935,11 @@
         <v>105</v>
       </c>
       <c r="J72" s="5"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K72" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>320</v>
       </c>
@@ -3831,8 +3966,11 @@
         <v>105</v>
       </c>
       <c r="J73" s="5"/>
-    </row>
-    <row r="74" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="K73" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>325</v>
       </c>
@@ -3859,8 +3997,11 @@
         <v>105</v>
       </c>
       <c r="J74" s="5"/>
-    </row>
-    <row r="75" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K74" s="23" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>330</v>
       </c>
@@ -3887,8 +4028,11 @@
         <v>105</v>
       </c>
       <c r="J75" s="5"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K75" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>335</v>
       </c>
@@ -3915,8 +4059,11 @@
         <v>105</v>
       </c>
       <c r="J76" s="5"/>
-    </row>
-    <row r="77" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K76" s="24" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>340</v>
       </c>
@@ -3943,8 +4090,11 @@
         <v>105</v>
       </c>
       <c r="J77" s="5"/>
-    </row>
-    <row r="78" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K77" s="24" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>345</v>
       </c>
@@ -3973,8 +4123,11 @@
       <c r="J78" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K78" s="24" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>349</v>
       </c>
@@ -4001,8 +4154,11 @@
         <v>100</v>
       </c>
       <c r="J79" s="5"/>
-    </row>
-    <row r="80" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K79" s="24" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>354</v>
       </c>
@@ -4029,8 +4185,11 @@
         <v>100</v>
       </c>
       <c r="J80" s="5"/>
-    </row>
-    <row r="81" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="K80" s="23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>359</v>
       </c>
@@ -4057,6 +4216,9 @@
         <v>16</v>
       </c>
       <c r="J81" s="5"/>
+      <c r="K81" s="24" t="s">
+        <v>380</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
